--- a/Sanimal/Sanimal.xlsx
+++ b/Sanimal/Sanimal.xlsx
@@ -12,7 +12,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cardinal</t>
+  </si>
+  <si>
+    <t>Coyote</t>
+  </si>
+  <si>
+    <t>Bobcat</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64,13 +77,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Hello World!</c:v>
+            <c:v>Species Accumulation</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Main Analysis'!$A$1:$D$1</c:f>
+              <c:f>'Main Analysis'!$B$1:$B$3</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -78,46 +91,16 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Main Analysis'!$A$2:$D$2</c:f>
+              <c:f>'Main Analysis'!$A$1:$A$3</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Hello World 2!</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Main Analysis'!$A$1:$D$1</c:f>
-              <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -126,29 +109,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Main Analysis'!$A$3:$D$3</c:f>
-              <c:numCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -161,6 +121,7 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="b"/>
@@ -175,6 +136,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="l"/>
@@ -204,15 +166,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -248,41 +210,32 @@
         <v>1.0</v>
       </c>
       <c r="B1" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C1" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D1" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Sanimal/Sanimal.xlsx
+++ b/Sanimal/Sanimal.xlsx
@@ -12,20 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cardinal</t>
-  </si>
-  <si>
-    <t>Coyote</t>
-  </si>
-  <si>
-    <t>Bobcat</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -77,7 +64,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Species Accumulation</c:v>
+            <c:v>Data Table</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -85,13 +72,13 @@
               <c:numCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -102,13 +89,13 @@
               <c:numCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -207,35 +194,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
+        <v>3.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+        <v>6.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B3" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+        <v>9.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
